--- a/src/gatourism/data_P_fix.xlsx
+++ b/src/gatourism/data_P_fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5042BDBB-4CCA-4481-AF5E-50A720E8263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3512D0D8-12D6-4353-87D1-35C47691DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="2280" windowWidth="17256" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1023,9 @@
       <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
       <c r="E2" s="10">
         <v>0</v>
       </c>

--- a/src/gatourism/data_P_fix.xlsx
+++ b/src/gatourism/data_P_fix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E64450F-BBF6-4A4E-9D8F-1D737D878053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071C434D-54F2-47B0-9583-4366A38B235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="N178" sqref="N178"/>
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>82800</v>
       </c>
       <c r="E65" s="14">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="0"/>
@@ -2607,7 +2607,7 @@
         <v>82800</v>
       </c>
       <c r="E66" s="14">
-        <v>0</v>
+        <v>245000</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="0"/>
@@ -2631,7 +2631,7 @@
         <v>79200</v>
       </c>
       <c r="E67" s="14">
-        <v>0</v>
+        <v>810000</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F130" si="1">3600*G67</f>
@@ -2655,7 +2655,7 @@
         <v>79200</v>
       </c>
       <c r="E68" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="1"/>
@@ -2679,7 +2679,7 @@
         <v>81000</v>
       </c>
       <c r="E69" s="14">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="1"/>
@@ -2703,7 +2703,7 @@
         <v>82800</v>
       </c>
       <c r="E70" s="14">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="1"/>
@@ -2713,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>72000</v>
       </c>
       <c r="E72" s="14">
-        <v>0</v>
+        <v>390000</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="1"/>
@@ -2775,7 +2775,7 @@
         <v>79200</v>
       </c>
       <c r="E73" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="1"/>
@@ -2799,7 +2799,7 @@
         <v>86160</v>
       </c>
       <c r="E74" s="14">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="1"/>
@@ -2823,7 +2823,7 @@
         <v>77400</v>
       </c>
       <c r="E75" s="14">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="1"/>
@@ -2871,7 +2871,7 @@
         <v>43200</v>
       </c>
       <c r="E77" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="1"/>
@@ -2895,7 +2895,7 @@
         <v>75600</v>
       </c>
       <c r="E78" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="1"/>
@@ -2919,7 +2919,7 @@
         <v>68400</v>
       </c>
       <c r="E79" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="1"/>
@@ -2991,7 +2991,7 @@
         <v>84600</v>
       </c>
       <c r="E82" s="14">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F82" s="11">
         <f t="shared" si="1"/>
@@ -3015,7 +3015,7 @@
         <v>82800</v>
       </c>
       <c r="E83" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F83" s="11">
         <f t="shared" si="1"/>
@@ -3039,7 +3039,7 @@
         <v>79200</v>
       </c>
       <c r="E84" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F84" s="11">
         <f t="shared" si="1"/>
@@ -3062,9 +3062,7 @@
       <c r="D85">
         <v>84600</v>
       </c>
-      <c r="E85" s="14">
-        <v>0</v>
-      </c>
+      <c r="E85" s="14"/>
       <c r="F85" s="11">
         <f t="shared" si="1"/>
         <v>7200</v>
@@ -3087,7 +3085,7 @@
         <v>81000</v>
       </c>
       <c r="E86" s="14">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="1"/>
@@ -3111,7 +3109,7 @@
         <v>81000</v>
       </c>
       <c r="E87" s="14">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="1"/>
@@ -3135,7 +3133,7 @@
         <v>84600</v>
       </c>
       <c r="E88" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="1"/>
@@ -3159,7 +3157,7 @@
         <v>68400</v>
       </c>
       <c r="E89" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="1"/>
@@ -3183,7 +3181,7 @@
         <v>84600</v>
       </c>
       <c r="E90" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F90" s="11">
         <f t="shared" si="1"/>
@@ -3207,7 +3205,7 @@
         <v>68400</v>
       </c>
       <c r="E91" s="14">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F91" s="11">
         <f t="shared" si="1"/>
@@ -3231,7 +3229,7 @@
         <v>84600</v>
       </c>
       <c r="E92" s="14">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="F92" s="11">
         <f t="shared" si="1"/>
@@ -3255,7 +3253,7 @@
         <v>75600</v>
       </c>
       <c r="E93" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F93" s="11">
         <f t="shared" si="1"/>
@@ -3303,7 +3301,7 @@
         <v>79200</v>
       </c>
       <c r="E95" s="14">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="F95" s="11">
         <f t="shared" si="1"/>
@@ -3327,7 +3325,7 @@
         <v>79200</v>
       </c>
       <c r="E96" s="14">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="1"/>
@@ -3351,7 +3349,7 @@
         <v>72000</v>
       </c>
       <c r="E97" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F97" s="11">
         <f t="shared" si="1"/>
@@ -3375,7 +3373,7 @@
         <v>75600</v>
       </c>
       <c r="E98" s="14">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F98" s="11">
         <f t="shared" si="1"/>
@@ -3399,7 +3397,7 @@
         <v>7200</v>
       </c>
       <c r="E99" s="14">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F99" s="11">
         <f t="shared" si="1"/>
@@ -3423,7 +3421,7 @@
         <v>79200</v>
       </c>
       <c r="E100" s="14">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F100" s="11">
         <f t="shared" si="1"/>
@@ -3447,7 +3445,7 @@
         <v>72000</v>
       </c>
       <c r="E101" s="14">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="F101" s="11">
         <f t="shared" si="1"/>
@@ -3495,7 +3493,7 @@
         <v>79200</v>
       </c>
       <c r="E103" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F103" s="11">
         <f t="shared" si="1"/>
@@ -3519,7 +3517,7 @@
         <v>72000</v>
       </c>
       <c r="E104" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="1"/>
@@ -3543,7 +3541,7 @@
         <v>43200</v>
       </c>
       <c r="E105" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F105" s="11">
         <f t="shared" si="1"/>
@@ -3601,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>

--- a/src/gatourism/data_P_fix.xlsx
+++ b/src/gatourism/data_P_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071C434D-54F2-47B0-9583-4366A38B235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CCA0B8-0EF7-4C9C-A93C-8A9B5C122084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
   <si>
     <t>start</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>Phố Hàng Mã</t>
-  </si>
-  <si>
-    <t>Hợp tác xã Vụn Art</t>
-  </si>
-  <si>
-    <t>Tháp Hòa Phong</t>
   </si>
   <si>
     <t>Triển lãm Nghệ thuật Việt Nam</t>
@@ -1025,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F66" si="0">3600*G3</f>
+        <f t="shared" ref="F3:F64" si="0">3600*G3</f>
         <v>5400</v>
       </c>
       <c r="G3" s="14">
@@ -1753,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1761,23 +1755,23 @@
         <v>52</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="D31">
-        <v>86340</v>
+        <v>63000</v>
       </c>
       <c r="E31" s="14">
         <v>0</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="G31" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1785,10 +1779,10 @@
         <v>53</v>
       </c>
       <c r="C32" s="6">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>57600</v>
+        <v>86340</v>
       </c>
       <c r="E32" s="14">
         <v>0</v>
@@ -1801,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1809,10 +1803,10 @@
         <v>54</v>
       </c>
       <c r="C33" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D33">
-        <v>63000</v>
+        <v>64800</v>
       </c>
       <c r="E33" s="14">
         <v>0</v>
@@ -1833,23 +1827,23 @@
         <v>55</v>
       </c>
       <c r="C34" s="6">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="D34">
-        <v>86340</v>
+        <v>64800</v>
       </c>
       <c r="E34" s="14">
         <v>0</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="G34" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1857,23 +1851,23 @@
         <v>56</v>
       </c>
       <c r="C35" s="6">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>64800</v>
+        <v>86340</v>
       </c>
       <c r="E35" s="14">
         <v>0</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="G35" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1881,23 +1875,23 @@
         <v>57</v>
       </c>
       <c r="C36" s="6">
-        <v>34200</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>64800</v>
+        <v>86340</v>
       </c>
       <c r="E36" s="14">
         <v>0</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="G36" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1905,23 +1899,23 @@
         <v>58</v>
       </c>
       <c r="C37" s="6">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="D37">
-        <v>86340</v>
+        <v>66600</v>
       </c>
       <c r="E37" s="14">
         <v>0</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="G37" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1929,10 +1923,10 @@
         <v>59</v>
       </c>
       <c r="C38" s="6">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D38">
-        <v>86340</v>
+        <v>59400</v>
       </c>
       <c r="E38" s="14">
         <v>0</v>
@@ -1945,7 +1939,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1953,34 +1947,34 @@
         <v>60</v>
       </c>
       <c r="C39" s="6">
-        <v>34200</v>
+        <v>32400</v>
       </c>
       <c r="D39">
-        <v>66600</v>
+        <v>82800</v>
       </c>
       <c r="E39" s="14">
         <v>0</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G39" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="8">
         <v>28800</v>
       </c>
-      <c r="D40">
-        <v>59400</v>
+      <c r="D40" s="8">
+        <v>68400</v>
       </c>
       <c r="E40" s="14">
         <v>0</v>
@@ -1993,7 +1987,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2004,17 +1998,17 @@
         <v>32400</v>
       </c>
       <c r="D41">
-        <v>82800</v>
+        <v>59400</v>
       </c>
       <c r="E41" s="14">
         <v>0</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="G41" s="14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2024,24 +2018,24 @@
       <c r="B42" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="8">
-        <v>28800</v>
-      </c>
-      <c r="D42" s="8">
-        <v>68400</v>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>86340</v>
       </c>
       <c r="E42" s="14">
         <v>0</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="G42" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2049,23 +2043,23 @@
         <v>64</v>
       </c>
       <c r="C43" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D43">
-        <v>59400</v>
+        <v>64800</v>
       </c>
       <c r="E43" s="14">
         <v>0</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="G43" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2073,20 +2067,20 @@
         <v>65</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="D44">
-        <v>86340</v>
+        <v>68400</v>
       </c>
       <c r="E44" s="14">
         <v>0</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>5400</v>
       </c>
       <c r="G44" s="14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2097,7 +2091,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D45">
         <v>64800</v>
@@ -2113,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2121,23 +2115,23 @@
         <v>67</v>
       </c>
       <c r="C46" s="6">
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>68400</v>
+        <v>86340</v>
       </c>
       <c r="E46" s="14">
         <v>0</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="G46" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2145,20 +2139,20 @@
         <v>68</v>
       </c>
       <c r="C47" s="6">
-        <v>32400</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>64800</v>
+        <v>86340</v>
       </c>
       <c r="E47" s="14">
         <v>0</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G47" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2169,23 +2163,23 @@
         <v>69</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="D48">
-        <v>86340</v>
+        <v>61200</v>
       </c>
       <c r="E48" s="14">
         <v>0</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G48" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2193,23 +2187,23 @@
         <v>70</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D49">
-        <v>86340</v>
+        <v>70200</v>
       </c>
       <c r="E49" s="14">
         <v>0</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G49" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D50">
         <v>61200</v>
@@ -2241,10 +2235,10 @@
         <v>72</v>
       </c>
       <c r="C51" s="6">
-        <v>32400</v>
+        <v>34200</v>
       </c>
       <c r="D51">
-        <v>70200</v>
+        <v>68400</v>
       </c>
       <c r="E51" s="14">
         <v>0</v>
@@ -2265,10 +2259,10 @@
         <v>73</v>
       </c>
       <c r="C52" s="6">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>61200</v>
+        <v>86340</v>
       </c>
       <c r="E52" s="14">
         <v>0</v>
@@ -2281,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2289,10 +2283,10 @@
         <v>74</v>
       </c>
       <c r="C53" s="6">
-        <v>34200</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>68400</v>
+        <v>86340</v>
       </c>
       <c r="E53" s="14">
         <v>0</v>
@@ -2305,18 +2299,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>86340</v>
+      <c r="C54" s="8">
+        <v>28800</v>
+      </c>
+      <c r="D54" s="8">
+        <v>72000</v>
       </c>
       <c r="E54" s="14">
         <v>0</v>
@@ -2353,18 +2347,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="8">
-        <v>28800</v>
-      </c>
-      <c r="D56" s="8">
-        <v>72000</v>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>86340</v>
       </c>
       <c r="E56" s="14">
         <v>0</v>
@@ -2401,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2419,23 +2413,23 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G58" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
         <v>86340</v>
       </c>
       <c r="E59" s="14">
@@ -2449,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2457,20 +2451,20 @@
         <v>81</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D60">
-        <v>86340</v>
+        <v>61200</v>
       </c>
       <c r="E60" s="14">
         <v>0</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="G60" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2480,10 +2474,10 @@
       <c r="B61" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="8">
-        <v>0</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>86340</v>
       </c>
       <c r="E61" s="14">
@@ -2505,10 +2499,10 @@
         <v>83</v>
       </c>
       <c r="C62" s="6">
-        <v>32400</v>
+        <v>30600</v>
       </c>
       <c r="D62">
-        <v>61200</v>
+        <v>73800</v>
       </c>
       <c r="E62" s="14">
         <v>0</v>
@@ -2521,21 +2515,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D63">
-        <v>86340</v>
+        <v>82800</v>
       </c>
       <c r="E63" s="14">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="0"/>
@@ -2550,16 +2544,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="6">
-        <v>30600</v>
+        <v>32400</v>
       </c>
       <c r="D64">
-        <v>73800</v>
+        <v>82800</v>
       </c>
       <c r="E64" s="14">
-        <v>0</v>
+        <v>245000</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="0"/>
@@ -2569,31 +2563,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C65" s="6">
         <v>32400</v>
       </c>
       <c r="D65">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E65" s="14">
-        <v>150000</v>
+        <v>810000</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="0"/>
-        <v>7200</v>
+        <f t="shared" ref="F65:F128" si="1">3600*G65</f>
+        <v>10800</v>
       </c>
       <c r="G65" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2601,16 +2595,16 @@
         <v>86</v>
       </c>
       <c r="C66" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D66">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E66" s="14">
-        <v>245000</v>
+        <v>400000</v>
       </c>
       <c r="F66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="G66" s="14">
@@ -2628,20 +2622,20 @@
         <v>32400</v>
       </c>
       <c r="D67">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E67" s="14">
-        <v>810000</v>
+        <v>700000</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" ref="F67:F130" si="1">3600*G67</f>
+        <f t="shared" si="1"/>
         <v>10800</v>
       </c>
       <c r="G67" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2649,13 +2643,13 @@
         <v>88</v>
       </c>
       <c r="C68" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D68">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="E68" s="14">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="1"/>
@@ -2665,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2676,20 +2670,20 @@
         <v>32400</v>
       </c>
       <c r="D69">
-        <v>81000</v>
+        <v>82800</v>
       </c>
       <c r="E69" s="14">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G69" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2697,13 +2691,13 @@
         <v>90</v>
       </c>
       <c r="C70" s="6">
-        <v>30600</v>
+        <v>32400</v>
       </c>
       <c r="D70">
-        <v>82800</v>
+        <v>72000</v>
       </c>
       <c r="E70" s="14">
-        <v>240000</v>
+        <v>390000</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="1"/>
@@ -2713,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2721,13 +2715,13 @@
         <v>91</v>
       </c>
       <c r="C71" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D71">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E71" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="1"/>
@@ -2737,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2748,10 +2742,10 @@
         <v>32400</v>
       </c>
       <c r="D72">
-        <v>72000</v>
+        <v>86160</v>
       </c>
       <c r="E72" s="14">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="1"/>
@@ -2761,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2769,13 +2763,13 @@
         <v>93</v>
       </c>
       <c r="C73" s="6">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="D73">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E73" s="14">
-        <v>200000</v>
+        <v>450000</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="1"/>
@@ -2793,13 +2787,13 @@
         <v>94</v>
       </c>
       <c r="C74" s="6">
-        <v>32400</v>
+        <v>50400</v>
       </c>
       <c r="D74">
-        <v>86160</v>
+        <v>43200</v>
       </c>
       <c r="E74" s="14">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="1"/>
@@ -2809,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2817,23 +2811,23 @@
         <v>95</v>
       </c>
       <c r="C75" s="6">
-        <v>32400</v>
+        <v>50400</v>
       </c>
       <c r="D75">
-        <v>77400</v>
+        <v>43200</v>
       </c>
       <c r="E75" s="14">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G75" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2841,23 +2835,23 @@
         <v>96</v>
       </c>
       <c r="C76" s="6">
-        <v>50400</v>
+        <v>32400</v>
       </c>
       <c r="D76">
-        <v>43200</v>
+        <v>75600</v>
       </c>
       <c r="E76" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G76" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2865,23 +2859,23 @@
         <v>97</v>
       </c>
       <c r="C77" s="6">
-        <v>50400</v>
+        <v>34200</v>
       </c>
       <c r="D77">
-        <v>43200</v>
+        <v>68400</v>
       </c>
       <c r="E77" s="14">
         <v>400000</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G77" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2889,20 +2883,20 @@
         <v>98</v>
       </c>
       <c r="C78" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D78">
-        <v>75600</v>
+        <v>70200</v>
       </c>
       <c r="E78" s="14">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G78" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2913,23 +2907,23 @@
         <v>99</v>
       </c>
       <c r="C79" s="6">
-        <v>34200</v>
+        <v>32400</v>
       </c>
       <c r="D79">
-        <v>68400</v>
+        <v>75600</v>
       </c>
       <c r="E79" s="14">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="G79" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2937,13 +2931,13 @@
         <v>100</v>
       </c>
       <c r="C80" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D80">
-        <v>70200</v>
+        <v>84600</v>
       </c>
       <c r="E80" s="14">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="1"/>
@@ -2953,7 +2947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2964,17 +2958,17 @@
         <v>32400</v>
       </c>
       <c r="D81">
-        <v>75600</v>
+        <v>82800</v>
       </c>
       <c r="E81" s="14">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F81" s="11">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="G81" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2985,13 +2979,13 @@
         <v>102</v>
       </c>
       <c r="C82" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D82">
-        <v>84600</v>
+        <v>79200</v>
       </c>
       <c r="E82" s="14">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="F82" s="11">
         <f t="shared" si="1"/>
@@ -3001,22 +2995,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C83" s="6">
         <v>32400</v>
       </c>
       <c r="D83">
-        <v>82800</v>
-      </c>
-      <c r="E83" s="14">
-        <v>500000</v>
-      </c>
+        <v>84600</v>
+      </c>
+      <c r="E83" s="14"/>
       <c r="F83" s="11">
         <f t="shared" si="1"/>
         <v>7200</v>
@@ -3025,21 +3017,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="6">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="D84">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E84" s="14">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="F84" s="11">
         <f t="shared" si="1"/>
@@ -3054,21 +3046,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C85" s="6">
         <v>32400</v>
       </c>
       <c r="D85">
-        <v>84600</v>
-      </c>
-      <c r="E85" s="14"/>
+        <v>81000</v>
+      </c>
+      <c r="E85" s="14">
+        <v>700000</v>
+      </c>
       <c r="F85" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G85" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -3082,10 +3076,10 @@
         <v>32400</v>
       </c>
       <c r="D86">
-        <v>81000</v>
+        <v>84600</v>
       </c>
       <c r="E86" s="14">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="1"/>
@@ -3095,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3103,20 +3097,20 @@
         <v>106</v>
       </c>
       <c r="C87" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D87">
-        <v>81000</v>
+        <v>68400</v>
       </c>
       <c r="E87" s="14">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G87" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
         <v>84600</v>
       </c>
       <c r="E88" s="14">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="1"/>
@@ -3157,7 +3151,7 @@
         <v>68400</v>
       </c>
       <c r="E89" s="14">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="1"/>
@@ -3167,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3175,13 +3169,13 @@
         <v>109</v>
       </c>
       <c r="C90" s="6">
-        <v>32400</v>
+        <v>34200</v>
       </c>
       <c r="D90">
         <v>84600</v>
       </c>
       <c r="E90" s="14">
-        <v>400000</v>
+        <v>480000</v>
       </c>
       <c r="F90" s="11">
         <f t="shared" si="1"/>
@@ -3198,14 +3192,14 @@
       <c r="B91" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D91">
-        <v>68400</v>
+      <c r="C91" s="7">
+        <v>32400</v>
+      </c>
+      <c r="D91" s="3">
+        <v>75600</v>
       </c>
       <c r="E91" s="14">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="F91" s="11">
         <f t="shared" si="1"/>
@@ -3215,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3223,13 +3217,13 @@
         <v>111</v>
       </c>
       <c r="C92" s="6">
-        <v>34200</v>
+        <v>32400</v>
       </c>
       <c r="D92">
-        <v>84600</v>
+        <v>79200</v>
       </c>
       <c r="E92" s="14">
-        <v>480000</v>
+        <v>0</v>
       </c>
       <c r="F92" s="11">
         <f t="shared" si="1"/>
@@ -3239,21 +3233,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="7">
-        <v>32400</v>
-      </c>
-      <c r="D93" s="3">
-        <v>75600</v>
+      <c r="C93" s="6">
+        <v>36000</v>
+      </c>
+      <c r="D93">
+        <v>79200</v>
       </c>
       <c r="E93" s="14">
-        <v>400000</v>
+        <v>140000</v>
       </c>
       <c r="F93" s="11">
         <f t="shared" si="1"/>
@@ -3263,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>79200</v>
       </c>
       <c r="E94" s="14">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F94" s="11">
         <f t="shared" si="1"/>
@@ -3287,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3295,13 +3289,13 @@
         <v>114</v>
       </c>
       <c r="C95" s="6">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="D95">
-        <v>79200</v>
+        <v>72000</v>
       </c>
       <c r="E95" s="14">
-        <v>140000</v>
+        <v>500000</v>
       </c>
       <c r="F95" s="11">
         <f t="shared" si="1"/>
@@ -3311,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3322,20 +3316,20 @@
         <v>32400</v>
       </c>
       <c r="D96">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E96" s="14">
-        <v>450000</v>
+        <v>700000</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G96" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3343,13 +3337,13 @@
         <v>116</v>
       </c>
       <c r="C97" s="6">
-        <v>27000</v>
+        <v>30600</v>
       </c>
       <c r="D97">
-        <v>72000</v>
+        <v>7200</v>
       </c>
       <c r="E97" s="14">
-        <v>500000</v>
+        <v>180000</v>
       </c>
       <c r="F97" s="11">
         <f t="shared" si="1"/>
@@ -3359,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3367,13 +3361,13 @@
         <v>117</v>
       </c>
       <c r="C98" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D98">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E98" s="14">
-        <v>700000</v>
+        <v>20000</v>
       </c>
       <c r="F98" s="11">
         <f t="shared" si="1"/>
@@ -3391,23 +3385,23 @@
         <v>118</v>
       </c>
       <c r="C99" s="6">
-        <v>30600</v>
+        <v>46800</v>
       </c>
       <c r="D99">
-        <v>7200</v>
+        <v>72000</v>
       </c>
       <c r="E99" s="14">
-        <v>180000</v>
+        <v>800000</v>
       </c>
       <c r="F99" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G99" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3415,20 +3409,20 @@
         <v>119</v>
       </c>
       <c r="C100" s="6">
-        <v>36000</v>
+        <v>39600</v>
       </c>
       <c r="D100">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E100" s="14">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F100" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G100" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -3439,20 +3433,20 @@
         <v>120</v>
       </c>
       <c r="C101" s="6">
-        <v>46800</v>
+        <v>32400</v>
       </c>
       <c r="D101">
-        <v>72000</v>
+        <v>79200</v>
       </c>
       <c r="E101" s="14">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="F101" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3462,14 +3456,14 @@
       <c r="B102" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="6">
-        <v>39600</v>
-      </c>
-      <c r="D102">
-        <v>81000</v>
+      <c r="C102" s="8">
+        <v>68400</v>
+      </c>
+      <c r="D102" s="8">
+        <v>72000</v>
       </c>
       <c r="E102" s="14">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F102" s="11">
         <f t="shared" si="1"/>
@@ -3479,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3487,13 +3481,13 @@
         <v>122</v>
       </c>
       <c r="C103" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D103">
-        <v>79200</v>
+        <v>43200</v>
       </c>
       <c r="E103" s="14">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="F103" s="11">
         <f t="shared" si="1"/>
@@ -3510,14 +3504,14 @@
       <c r="B104" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C104" s="8">
-        <v>68400</v>
-      </c>
-      <c r="D104" s="8">
-        <v>72000</v>
+      <c r="C104" s="6">
+        <v>36000</v>
+      </c>
+      <c r="D104">
+        <v>75600</v>
       </c>
       <c r="E104" s="14">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="1"/>
@@ -3527,7 +3521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3535,13 +3529,13 @@
         <v>124</v>
       </c>
       <c r="C105" s="6">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="D105">
-        <v>43200</v>
+        <v>79200</v>
       </c>
       <c r="E105" s="14">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="F105" s="11">
         <f t="shared" si="1"/>
@@ -3551,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3559,13 +3553,13 @@
         <v>125</v>
       </c>
       <c r="C106" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D106">
-        <v>75600</v>
+        <v>32400</v>
+      </c>
+      <c r="D106" s="4">
+        <v>79200</v>
       </c>
       <c r="E106" s="14">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="F106" s="11">
         <f t="shared" si="1"/>
@@ -3575,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3583,13 +3577,13 @@
         <v>126</v>
       </c>
       <c r="C107" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D107">
         <v>79200</v>
       </c>
       <c r="E107" s="14">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="F107" s="11">
         <f t="shared" si="1"/>
@@ -3599,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3607,23 +3601,23 @@
         <v>127</v>
       </c>
       <c r="C108" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D108" s="4">
-        <v>79200</v>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>86340</v>
       </c>
       <c r="E108" s="14">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F108" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G108" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3634,20 +3628,20 @@
         <v>28800</v>
       </c>
       <c r="D109">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E109" s="14">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F109" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="G109" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3655,28 +3649,28 @@
         <v>129</v>
       </c>
       <c r="C110" s="6">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="D110">
-        <v>86340</v>
+        <v>63000</v>
       </c>
       <c r="E110" s="14">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="F110" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G110" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="C111" s="6">
         <v>28800</v>
@@ -3685,31 +3679,31 @@
         <v>61200</v>
       </c>
       <c r="E111" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F111" s="11">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="G111" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D112">
-        <v>63000</v>
+        <v>61200</v>
       </c>
       <c r="E112" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F112" s="11">
         <f t="shared" si="1"/>
@@ -3719,21 +3713,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C113" s="6">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>61200</v>
+        <v>86340</v>
       </c>
       <c r="E113" s="14">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F113" s="11">
         <f t="shared" si="1"/>
@@ -3743,45 +3737,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C114" s="6">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>61200</v>
+        <v>86340</v>
       </c>
       <c r="E114" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F114" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="G114" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="C115" s="6">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D115">
-        <v>86340</v>
+        <v>61200</v>
       </c>
       <c r="E115" s="14">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F115" s="11">
         <f t="shared" si="1"/>
@@ -3791,28 +3785,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C116" s="6">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D116">
-        <v>86340</v>
+        <v>0</v>
       </c>
       <c r="E116" s="14">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F116" s="11">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="G116" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3820,40 +3814,40 @@
         <v>115</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="C117" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D117">
         <v>61200</v>
       </c>
       <c r="E117" s="14">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="F117" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="G117" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>134</v>
+      <c r="B118" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C118" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="E118" s="14">
-        <v>300000</v>
+        <v>40000</v>
       </c>
       <c r="F118" s="11">
         <f t="shared" si="1"/>
@@ -3863,36 +3857,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="6">
-        <v>30600</v>
+        <v>27000</v>
       </c>
       <c r="D119">
-        <v>61200</v>
+        <v>66600</v>
       </c>
       <c r="E119" s="14">
-        <v>480000</v>
+        <v>0</v>
       </c>
       <c r="F119" s="11">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="G119" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="16" t="s">
-        <v>6</v>
+      <c r="B120" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C120" s="6">
         <v>28800</v>
@@ -3901,7 +3895,7 @@
         <v>59400</v>
       </c>
       <c r="E120" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F120" s="11">
         <f t="shared" si="1"/>
@@ -3916,40 +3910,40 @@
         <v>119</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="6">
-        <v>27000</v>
+        <v>28800</v>
       </c>
       <c r="D121">
-        <v>66600</v>
+        <v>59400</v>
       </c>
       <c r="E121" s="14">
         <v>0</v>
       </c>
       <c r="F121" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G121" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="6">
+        <v>5</v>
+      </c>
+      <c r="C122" s="8">
         <v>28800</v>
       </c>
-      <c r="D122">
-        <v>59400</v>
+      <c r="D122" s="8">
+        <v>61200</v>
       </c>
       <c r="E122" s="14">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F122" s="11">
         <f t="shared" si="1"/>
@@ -3959,21 +3953,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>137</v>
+      <c r="B123" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C123" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D123">
-        <v>59400</v>
+        <v>79200</v>
       </c>
       <c r="E123" s="14">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F123" s="11">
         <f t="shared" si="1"/>
@@ -3983,21 +3977,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="8">
-        <v>28800</v>
-      </c>
-      <c r="D124" s="8">
-        <v>61200</v>
+        <v>136</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>86340</v>
       </c>
       <c r="E124" s="14">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="F124" s="11">
         <f t="shared" si="1"/>
@@ -4007,21 +4001,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>17</v>
+      <c r="B125" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="C125" s="6">
-        <v>25200</v>
+        <v>30600</v>
       </c>
       <c r="D125">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E125" s="14">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F125" s="11">
         <f t="shared" si="1"/>
@@ -4045,7 +4039,7 @@
         <v>86340</v>
       </c>
       <c r="E126" s="14">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="F126" s="11">
         <f t="shared" si="1"/>
@@ -4063,37 +4057,37 @@
         <v>139</v>
       </c>
       <c r="C127" s="6">
-        <v>30600</v>
+        <v>25200</v>
       </c>
       <c r="D127">
-        <v>61200</v>
+        <v>57600</v>
       </c>
       <c r="E127" s="14">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="F127" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G127" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C128" s="6">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D128">
-        <v>86340</v>
+        <v>61200</v>
       </c>
       <c r="E128" s="14">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="1"/>
@@ -4111,68 +4105,68 @@
         <v>141</v>
       </c>
       <c r="C129" s="6">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>57600</v>
+        <v>86340</v>
       </c>
       <c r="E129" s="14">
-        <v>70000</v>
+        <v>150000</v>
       </c>
       <c r="F129" s="11">
-        <f t="shared" si="1"/>
-        <v>10800</v>
+        <f t="shared" ref="F129:F177" si="2">3600*G129</f>
+        <v>7200</v>
       </c>
       <c r="G129" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D130">
-        <v>61200</v>
+      <c r="B130" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3">
+        <v>86340</v>
       </c>
       <c r="E130" s="14">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F130" s="11">
-        <f t="shared" si="1"/>
-        <v>7200</v>
+        <f t="shared" si="2"/>
+        <v>10800</v>
       </c>
       <c r="G130" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="6">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D131">
-        <v>86340</v>
+        <v>61200</v>
       </c>
       <c r="E131" s="14">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" ref="F131:F179" si="2">3600*G131</f>
-        <v>7200</v>
+        <f t="shared" si="2"/>
+        <v>10800</v>
       </c>
       <c r="G131" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4180,61 +4174,61 @@
         <v>130</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="7">
-        <v>0</v>
-      </c>
-      <c r="D132" s="3">
+        <v>11</v>
+      </c>
+      <c r="C132" s="8">
+        <v>0</v>
+      </c>
+      <c r="D132" s="8">
         <v>86340</v>
       </c>
       <c r="E132" s="14">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F132" s="11">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G132" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="C133" s="6">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>61200</v>
+        <v>86340</v>
       </c>
       <c r="E133" s="14">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="F133" s="11">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G133" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="8">
-        <v>0</v>
-      </c>
-      <c r="D134" s="8">
-        <v>86340</v>
+        <v>143</v>
+      </c>
+      <c r="C134" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D134">
+        <v>61200</v>
       </c>
       <c r="E134" s="14">
         <v>0</v>
@@ -4247,21 +4241,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C135" s="6">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D135">
-        <v>86340</v>
+        <v>75600</v>
       </c>
       <c r="E135" s="14">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="F135" s="11">
         <f t="shared" si="2"/>
@@ -4271,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4279,13 +4273,13 @@
         <v>145</v>
       </c>
       <c r="C136" s="6">
-        <v>28800</v>
+        <v>36000</v>
       </c>
       <c r="D136">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E136" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="2"/>
@@ -4295,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4303,13 +4297,13 @@
         <v>146</v>
       </c>
       <c r="C137" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D137">
-        <v>75600</v>
+        <v>64800</v>
       </c>
       <c r="E137" s="14">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="F137" s="11">
         <f t="shared" si="2"/>
@@ -4319,45 +4313,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="C138" s="6">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="D138">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E138" s="14">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="F138" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G138" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="C139" s="6">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>64800</v>
+        <v>86340</v>
       </c>
       <c r="E139" s="14">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="F139" s="11">
         <f t="shared" si="2"/>
@@ -4372,16 +4366,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C140" s="6">
-        <v>28800</v>
+        <v>36000</v>
       </c>
       <c r="D140">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E140" s="14">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="F140" s="11">
         <f t="shared" si="2"/>
@@ -4396,26 +4390,26 @@
         <v>139</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C141" s="6">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D141">
-        <v>86340</v>
+        <v>75600</v>
       </c>
       <c r="E141" s="14">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="F141" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G141" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4423,23 +4417,23 @@
         <v>149</v>
       </c>
       <c r="C142" s="6">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="D142">
-        <v>79200</v>
+        <v>59400</v>
       </c>
       <c r="E142" s="14">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F142" s="11">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G142" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4447,13 +4441,13 @@
         <v>150</v>
       </c>
       <c r="C143" s="6">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>75600</v>
+        <v>86340</v>
       </c>
       <c r="E143" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F143" s="11">
         <f t="shared" si="2"/>
@@ -4463,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4471,23 +4465,23 @@
         <v>151</v>
       </c>
       <c r="C144" s="6">
-        <v>32400</v>
+        <v>27000</v>
       </c>
       <c r="D144">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="E144" s="14">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F144" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="G144" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4501,17 +4495,17 @@
         <v>86340</v>
       </c>
       <c r="E145" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F145" s="11">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G145" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4519,23 +4513,23 @@
         <v>153</v>
       </c>
       <c r="C146" s="6">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>57600</v>
+        <v>86340</v>
       </c>
       <c r="E146" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F146" s="11">
         <f t="shared" si="2"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="G146" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4543,13 +4537,13 @@
         <v>154</v>
       </c>
       <c r="C147" s="6">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="D147">
-        <v>86340</v>
+        <v>64800</v>
       </c>
       <c r="E147" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F147" s="11">
         <f t="shared" si="2"/>
@@ -4559,7 +4553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4567,37 +4561,37 @@
         <v>155</v>
       </c>
       <c r="C148" s="6">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="D148">
-        <v>86340</v>
+        <v>61200</v>
       </c>
       <c r="E148" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F148" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="G148" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C149" s="6">
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>64800</v>
+        <v>86340</v>
       </c>
       <c r="E149" s="14">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F149" s="11">
         <f t="shared" si="2"/>
@@ -4607,41 +4601,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D150">
-        <v>61200</v>
+        <v>57600</v>
       </c>
       <c r="E150" s="14">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F150" s="11">
         <f t="shared" si="2"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="G150" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="6">
-        <v>0</v>
-      </c>
-      <c r="D151">
+        <v>157</v>
+      </c>
+      <c r="C151" s="8">
+        <v>0</v>
+      </c>
+      <c r="D151" s="8">
         <v>86340</v>
       </c>
       <c r="E151" s="14">
@@ -4655,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4663,13 +4657,13 @@
         <v>158</v>
       </c>
       <c r="C152" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D152">
-        <v>57600</v>
+        <v>61200</v>
       </c>
       <c r="E152" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F152" s="11">
         <f t="shared" si="2"/>
@@ -4679,76 +4673,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C153" s="8">
-        <v>0</v>
-      </c>
-      <c r="D153" s="8">
-        <v>86340</v>
+        <v>20</v>
+      </c>
+      <c r="C153" s="6">
+        <v>19800</v>
+      </c>
+      <c r="D153">
+        <v>79200</v>
       </c>
       <c r="E153" s="14">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F153" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G153" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C154" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D154">
-        <v>61200</v>
+        <v>82800</v>
       </c>
       <c r="E154" s="14">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F154" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="G154" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="C155" s="6">
-        <v>19800</v>
+        <v>28800</v>
       </c>
       <c r="D155">
-        <v>79200</v>
+        <v>59400</v>
       </c>
       <c r="E155" s="14">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="F155" s="11">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="G155" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -4759,61 +4753,61 @@
         <v>161</v>
       </c>
       <c r="C156" s="6">
-        <v>25200</v>
+        <v>14400</v>
       </c>
       <c r="D156">
-        <v>82800</v>
+        <v>72000</v>
       </c>
       <c r="E156" s="14">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F156" s="11">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="G156" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C157" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D157">
-        <v>59400</v>
+      <c r="C157" s="8">
+        <v>18000</v>
+      </c>
+      <c r="D157" s="8">
+        <v>72000</v>
       </c>
       <c r="E157" s="14">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="F157" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G157" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C158" s="6">
-        <v>14400</v>
-      </c>
-      <c r="D158">
-        <v>72000</v>
+      <c r="C158" s="8">
+        <v>0</v>
+      </c>
+      <c r="D158" s="8">
+        <v>86340</v>
       </c>
       <c r="E158" s="14">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F158" s="11">
         <f t="shared" si="2"/>
@@ -4823,18 +4817,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C159" s="8">
-        <v>18000</v>
-      </c>
-      <c r="D159" s="8">
-        <v>72000</v>
+      <c r="C159" s="6">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>86340</v>
       </c>
       <c r="E159" s="14">
         <v>0</v>
@@ -4847,21 +4841,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C160" s="8">
-        <v>0</v>
-      </c>
-      <c r="D160" s="8">
+      <c r="C160" s="6">
+        <v>0</v>
+      </c>
+      <c r="D160">
         <v>86340</v>
       </c>
       <c r="E160" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F160" s="11">
         <f t="shared" si="2"/>
@@ -4871,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4879,23 +4873,23 @@
         <v>166</v>
       </c>
       <c r="C161" s="6">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="D161">
-        <v>86340</v>
+        <v>68400</v>
       </c>
       <c r="E161" s="14">
         <v>0</v>
       </c>
       <c r="F161" s="11">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="G161" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4909,7 +4903,7 @@
         <v>86340</v>
       </c>
       <c r="E162" s="14">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F162" s="11">
         <f t="shared" si="2"/>
@@ -4926,11 +4920,11 @@
       <c r="B163" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="8">
         <v>21600</v>
       </c>
-      <c r="D163">
-        <v>68400</v>
+      <c r="D163" s="8">
+        <v>79200</v>
       </c>
       <c r="E163" s="14">
         <v>0</v>
@@ -4943,7 +4937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4957,7 +4951,7 @@
         <v>86340</v>
       </c>
       <c r="E164" s="14">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F164" s="11">
         <f t="shared" si="2"/>
@@ -4967,79 +4961,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C165" s="8">
-        <v>21600</v>
-      </c>
-      <c r="D165" s="8">
-        <v>79200</v>
+        <v>24</v>
+      </c>
+      <c r="C165" s="6">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>86340</v>
       </c>
       <c r="E165" s="14">
         <v>0</v>
       </c>
       <c r="F165" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G165" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C166" s="6">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="D166">
-        <v>86340</v>
+        <v>82800</v>
       </c>
       <c r="E166" s="14">
         <v>0</v>
       </c>
       <c r="F166" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G166" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="C167" s="6">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="D167">
-        <v>86340</v>
+        <v>72000</v>
       </c>
       <c r="E167" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F167" s="11">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>5400</v>
       </c>
       <c r="G167" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5047,23 +5041,23 @@
         <v>172</v>
       </c>
       <c r="C168" s="6">
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="D168">
-        <v>82800</v>
+        <v>63000</v>
       </c>
       <c r="E168" s="14">
         <v>0</v>
       </c>
       <c r="F168" s="11">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="G168" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5071,37 +5065,37 @@
         <v>173</v>
       </c>
       <c r="C169" s="6">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="D169">
-        <v>72000</v>
+        <v>79200</v>
       </c>
       <c r="E169" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F169" s="11">
         <f t="shared" si="2"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="G169" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C170" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D170">
-        <v>63000</v>
+      <c r="C170" s="7">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3">
+        <v>86340</v>
       </c>
       <c r="E170" s="14">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F170" s="11">
         <f t="shared" si="2"/>
@@ -5111,52 +5105,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C171" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D171">
-        <v>79200</v>
+        <v>0</v>
+      </c>
+      <c r="D171" s="3">
+        <v>86340</v>
       </c>
       <c r="E171" s="14">
         <v>0</v>
       </c>
       <c r="F171" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G171" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C172" s="7">
-        <v>0</v>
-      </c>
-      <c r="D172" s="3">
+        <v>175</v>
+      </c>
+      <c r="C172" s="6">
+        <v>0</v>
+      </c>
+      <c r="D172">
         <v>86340</v>
       </c>
       <c r="E172" s="14">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F172" s="11">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="G172" s="14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5164,12 +5158,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="C173" s="6">
         <v>0</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173">
         <v>86340</v>
       </c>
       <c r="E173" s="14">
@@ -5183,7 +5177,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5191,10 +5185,10 @@
         <v>177</v>
       </c>
       <c r="C174" s="6">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="D174">
-        <v>86340</v>
+        <v>81900</v>
       </c>
       <c r="E174" s="14">
         <v>0</v>
@@ -5214,10 +5208,10 @@
       <c r="B175" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C175" s="6">
-        <v>0</v>
-      </c>
-      <c r="D175">
+      <c r="C175" s="8">
+        <v>0</v>
+      </c>
+      <c r="D175" s="8">
         <v>86340</v>
       </c>
       <c r="E175" s="14">
@@ -5231,7 +5225,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5239,34 +5233,34 @@
         <v>179</v>
       </c>
       <c r="C176" s="6">
-        <v>21600</v>
+        <v>32400</v>
       </c>
       <c r="D176">
-        <v>81900</v>
+        <v>68400</v>
       </c>
       <c r="E176" s="14">
         <v>0</v>
       </c>
       <c r="F176" s="11">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="G176" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C177" s="8">
-        <v>0</v>
-      </c>
-      <c r="D177" s="8">
-        <v>86340</v>
+      <c r="C177" s="14">
+        <v>32400</v>
+      </c>
+      <c r="D177" s="14">
+        <v>68400</v>
       </c>
       <c r="E177" s="14">
         <v>0</v>
@@ -5279,58 +5273,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D178">
-        <v>68400</v>
-      </c>
-      <c r="E178" s="14">
-        <v>0</v>
-      </c>
-      <c r="F178" s="11">
-        <f t="shared" si="2"/>
-        <v>7200</v>
-      </c>
-      <c r="G178" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
-        <v>177</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" s="14">
-        <v>32400</v>
-      </c>
-      <c r="D179" s="14">
-        <v>68400</v>
-      </c>
-      <c r="E179" s="14">
-        <v>0</v>
-      </c>
-      <c r="F179" s="11">
-        <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="G179" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="G180" s="14"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="G178" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
